--- a/data/extensionTimesAndLengths3X3.xlsx
+++ b/data/extensionTimesAndLengths3X3.xlsx
@@ -402,7 +402,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>3.486111111111111e-08</v>
+        <v>3.049768518518519e-07</v>
       </c>
     </row>
   </sheetData>
